--- a/notebooks/assets/test/keras20_1.xlsx
+++ b/notebooks/assets/test/keras20_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.176</v>
+        <v>1.691</v>
       </c>
       <c r="C2" t="n">
-        <v>1.449</v>
+        <v>1.378</v>
       </c>
       <c r="D2" t="n">
-        <v>1.161</v>
+        <v>1.59</v>
       </c>
       <c r="E2" t="n">
-        <v>0.884</v>
+        <v>0.93</v>
       </c>
       <c r="F2" t="n">
-        <v>1.791</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="3">
@@ -489,85 +489,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.186</v>
+        <v>4.178</v>
       </c>
       <c r="C3" t="n">
-        <v>3.704</v>
+        <v>3.963</v>
       </c>
       <c r="D3" t="n">
-        <v>2.528</v>
+        <v>4.426</v>
       </c>
       <c r="E3" t="n">
-        <v>1.294</v>
+        <v>1.442</v>
       </c>
       <c r="F3" t="n">
-        <v>5.055</v>
+        <v>5.451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mean Y-Test</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.212</v>
+        <v>0.652</v>
       </c>
       <c r="C4" t="n">
-        <v>15.444</v>
+        <v>0.752</v>
       </c>
       <c r="D4" t="n">
-        <v>18.041</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>12.88</v>
+        <v>0.57</v>
       </c>
       <c r="F4" t="n">
-        <v>30.329</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>mean Y-predicted</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>18.406</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.675</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.878</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.481</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31.088</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.369</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.829</v>
+        <v>0.861</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keras20_1.xlsx
+++ b/notebooks/assets/test/keras20_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,53 +433,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>grid_0_1_0418_0425_2021.gpkg</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>grid_0_1_0903_0910_2021.gpkg</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>grid_0_1_1007_1017_2021.gpkg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>grid_0_1_0717_0724_2021.gpkg</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>grid_0_1_0324_0331_2021.gpkg</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>MAE</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.691</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.378</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.863</v>
       </c>
     </row>
     <row r="3">
@@ -488,21 +446,6 @@
           <t>MSE</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>4.178</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.963</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.426</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.442</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.451</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,21 +453,6 @@
           <t>R2</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.861</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
